--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,18 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10260" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="批注，超链接，合并单元格" sheetId="3" r:id="rId3"/>
+    <sheet name="公式" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>itlab</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>itlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">这里有批注哦
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="14">
   <si>
     <t>姓名</t>
   </si>
@@ -37,6 +71,27 @@
   <si>
     <t>第二个sheet</t>
   </si>
+  <si>
+    <t>批注</t>
+  </si>
+  <si>
+    <t>超链接</t>
+  </si>
+  <si>
+    <t>批注1</t>
+  </si>
+  <si>
+    <t>IT实验室</t>
+  </si>
+  <si>
+    <t>合并单元格</t>
+  </si>
+  <si>
+    <t>原始值</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
 </sst>
 </file>
 
@@ -48,12 +103,20 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,14 +159,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +254,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -506,64 +572,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -584,16 +650,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,54 +671,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -988,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="19.7019230769231" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7019230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -998,7 +1070,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1009,7 +1081,7 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>43831</v>
       </c>
     </row>
@@ -1020,7 +1092,7 @@
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>43832</v>
       </c>
     </row>
@@ -1031,7 +1103,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>43831</v>
       </c>
     </row>
@@ -1042,7 +1114,7 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>43832</v>
       </c>
     </row>
@@ -1053,7 +1125,7 @@
       <c r="B6">
         <v>35</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>43833</v>
       </c>
     </row>
@@ -1064,7 +1136,7 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>43834</v>
       </c>
     </row>
@@ -1075,7 +1147,7 @@
       <c r="B8">
         <v>65</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>43835</v>
       </c>
     </row>
@@ -1086,7 +1158,7 @@
       <c r="B9">
         <v>80</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>43836</v>
       </c>
     </row>
@@ -1097,7 +1169,7 @@
       <c r="B10">
         <v>95</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>43837</v>
       </c>
     </row>
@@ -1108,7 +1180,7 @@
       <c r="B11">
         <v>110</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>43838</v>
       </c>
     </row>
@@ -1119,7 +1191,7 @@
       <c r="B12">
         <v>125</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>43839</v>
       </c>
     </row>
@@ -1130,7 +1202,7 @@
       <c r="B13">
         <v>140</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>43840</v>
       </c>
     </row>
@@ -1141,7 +1213,7 @@
       <c r="B14">
         <v>155</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>43841</v>
       </c>
     </row>
@@ -1152,7 +1224,7 @@
       <c r="B15">
         <v>170</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>43842</v>
       </c>
     </row>
@@ -1163,7 +1235,7 @@
       <c r="B16">
         <v>185</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>43843</v>
       </c>
     </row>
@@ -1174,7 +1246,7 @@
       <c r="B17">
         <v>200</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>43844</v>
       </c>
     </row>
@@ -1185,7 +1257,7 @@
       <c r="B18">
         <v>215</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>43845</v>
       </c>
     </row>
@@ -1196,7 +1268,7 @@
       <c r="B19">
         <v>230</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>43846</v>
       </c>
     </row>
@@ -1207,7 +1279,7 @@
       <c r="B20">
         <v>245</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>43847</v>
       </c>
     </row>
@@ -1218,7 +1290,7 @@
       <c r="B21">
         <v>260</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>43848</v>
       </c>
     </row>
@@ -1229,7 +1301,7 @@
       <c r="B22">
         <v>275</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>43849</v>
       </c>
     </row>
@@ -1240,7 +1312,7 @@
       <c r="B23">
         <v>290</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>43850</v>
       </c>
     </row>
@@ -1251,7 +1323,7 @@
       <c r="B24">
         <v>305</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>43851</v>
       </c>
     </row>
@@ -1262,7 +1334,7 @@
       <c r="B25">
         <v>320</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>43852</v>
       </c>
     </row>
@@ -1273,7 +1345,7 @@
       <c r="B26">
         <v>335</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>43853</v>
       </c>
     </row>
@@ -1284,7 +1356,7 @@
       <c r="B27">
         <v>350</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>43854</v>
       </c>
     </row>
@@ -1295,7 +1367,7 @@
       <c r="B28">
         <v>365</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>43855</v>
       </c>
     </row>
@@ -1306,7 +1378,7 @@
       <c r="B29">
         <v>380</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>43856</v>
       </c>
     </row>
@@ -1317,7 +1389,7 @@
       <c r="B30">
         <v>395</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>43857</v>
       </c>
     </row>
@@ -1328,7 +1400,7 @@
       <c r="B31">
         <v>410</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>43858</v>
       </c>
     </row>
@@ -1339,7 +1411,7 @@
       <c r="B32">
         <v>425</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>43859</v>
       </c>
     </row>
@@ -1350,7 +1422,7 @@
       <c r="B33">
         <v>440</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>43860</v>
       </c>
     </row>
@@ -1361,7 +1433,7 @@
       <c r="B34">
         <v>455</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>43861</v>
       </c>
     </row>
@@ -1372,7 +1444,7 @@
       <c r="B35">
         <v>470</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>43862</v>
       </c>
     </row>
@@ -1383,7 +1455,7 @@
       <c r="B36">
         <v>485</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>43863</v>
       </c>
     </row>
@@ -1394,7 +1466,7 @@
       <c r="B37">
         <v>500</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>43864</v>
       </c>
     </row>
@@ -1405,7 +1477,7 @@
       <c r="B38">
         <v>515</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>43865</v>
       </c>
     </row>
@@ -1416,7 +1488,7 @@
       <c r="B39">
         <v>530</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>43866</v>
       </c>
     </row>
@@ -1427,7 +1499,7 @@
       <c r="B40">
         <v>545</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>43867</v>
       </c>
     </row>
@@ -1438,7 +1510,7 @@
       <c r="B41">
         <v>560</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>43868</v>
       </c>
     </row>
@@ -1449,7 +1521,7 @@
       <c r="B42">
         <v>575</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>43869</v>
       </c>
     </row>
@@ -1460,7 +1532,7 @@
       <c r="B43">
         <v>590</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>43870</v>
       </c>
     </row>
@@ -1471,7 +1543,7 @@
       <c r="B44">
         <v>605</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>43871</v>
       </c>
     </row>
@@ -1482,7 +1554,7 @@
       <c r="B45">
         <v>620</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>43872</v>
       </c>
     </row>
@@ -1493,7 +1565,7 @@
       <c r="B46">
         <v>635</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>43873</v>
       </c>
     </row>
@@ -1504,7 +1576,7 @@
       <c r="B47">
         <v>650</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>43874</v>
       </c>
     </row>
@@ -1515,7 +1587,7 @@
       <c r="B48">
         <v>665</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>43875</v>
       </c>
     </row>
@@ -1526,7 +1598,7 @@
       <c r="B49">
         <v>680</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>43876</v>
       </c>
     </row>
@@ -1537,7 +1609,7 @@
       <c r="B50">
         <v>695</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>43877</v>
       </c>
     </row>
@@ -1548,7 +1620,7 @@
       <c r="B51">
         <v>710</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>43878</v>
       </c>
     </row>
@@ -1559,7 +1631,7 @@
       <c r="B52">
         <v>725</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>43879</v>
       </c>
     </row>
@@ -1570,7 +1642,7 @@
       <c r="B53">
         <v>740</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>43880</v>
       </c>
     </row>
@@ -1581,7 +1653,7 @@
       <c r="B54">
         <v>755</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>43881</v>
       </c>
     </row>
@@ -1592,7 +1664,7 @@
       <c r="B55">
         <v>770</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>43882</v>
       </c>
     </row>
@@ -1603,7 +1675,7 @@
       <c r="B56">
         <v>785</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>43883</v>
       </c>
     </row>
@@ -1614,7 +1686,7 @@
       <c r="B57">
         <v>800</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>43884</v>
       </c>
     </row>
@@ -1625,7 +1697,7 @@
       <c r="B58">
         <v>815</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>43885</v>
       </c>
     </row>
@@ -1636,7 +1708,7 @@
       <c r="B59">
         <v>830</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>43886</v>
       </c>
     </row>
@@ -1647,7 +1719,7 @@
       <c r="B60">
         <v>845</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>43887</v>
       </c>
     </row>
@@ -1658,7 +1730,7 @@
       <c r="B61">
         <v>860</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>43888</v>
       </c>
     </row>
@@ -1669,7 +1741,7 @@
       <c r="B62">
         <v>875</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>43889</v>
       </c>
     </row>
@@ -1680,7 +1752,7 @@
       <c r="B63">
         <v>890</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>43890</v>
       </c>
     </row>
@@ -1691,7 +1763,7 @@
       <c r="B64">
         <v>905</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>43891</v>
       </c>
     </row>
@@ -1702,7 +1774,7 @@
       <c r="B65">
         <v>920</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1713,7 +1785,7 @@
       <c r="B66">
         <v>935</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>43893</v>
       </c>
     </row>
@@ -1724,7 +1796,7 @@
       <c r="B67">
         <v>950</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>43894</v>
       </c>
     </row>
@@ -1735,7 +1807,7 @@
       <c r="B68">
         <v>965</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>43895</v>
       </c>
     </row>
@@ -1746,7 +1818,7 @@
       <c r="B69">
         <v>980</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>43896</v>
       </c>
     </row>
@@ -1757,7 +1829,7 @@
       <c r="B70">
         <v>995</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>43897</v>
       </c>
     </row>
@@ -1768,7 +1840,7 @@
       <c r="B71">
         <v>1010</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>43898</v>
       </c>
     </row>
@@ -1779,7 +1851,7 @@
       <c r="B72">
         <v>1025</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>43899</v>
       </c>
     </row>
@@ -1790,7 +1862,7 @@
       <c r="B73">
         <v>1040</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>43900</v>
       </c>
     </row>
@@ -1801,7 +1873,7 @@
       <c r="B74">
         <v>1055</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>43901</v>
       </c>
     </row>
@@ -1812,7 +1884,7 @@
       <c r="B75">
         <v>1070</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>43902</v>
       </c>
     </row>
@@ -1823,7 +1895,7 @@
       <c r="B76">
         <v>1085</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>43903</v>
       </c>
     </row>
@@ -1834,7 +1906,7 @@
       <c r="B77">
         <v>1100</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>43904</v>
       </c>
     </row>
@@ -1845,7 +1917,7 @@
       <c r="B78">
         <v>1115</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>43905</v>
       </c>
     </row>
@@ -1856,7 +1928,7 @@
       <c r="B79">
         <v>1130</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>43906</v>
       </c>
     </row>
@@ -1867,7 +1939,7 @@
       <c r="B80">
         <v>1145</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>43907</v>
       </c>
     </row>
@@ -1878,7 +1950,7 @@
       <c r="B81">
         <v>1160</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>43908</v>
       </c>
     </row>
@@ -1889,7 +1961,7 @@
       <c r="B82">
         <v>1175</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>43909</v>
       </c>
     </row>
@@ -1900,7 +1972,7 @@
       <c r="B83">
         <v>1190</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>43910</v>
       </c>
     </row>
@@ -1911,7 +1983,7 @@
       <c r="B84">
         <v>1205</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="4">
         <v>43911</v>
       </c>
     </row>
@@ -1922,7 +1994,7 @@
       <c r="B85">
         <v>1220</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="4">
         <v>43912</v>
       </c>
     </row>
@@ -1933,7 +2005,7 @@
       <c r="B86">
         <v>1235</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="4">
         <v>43913</v>
       </c>
     </row>
@@ -1944,7 +2016,7 @@
       <c r="B87">
         <v>1250</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <v>43914</v>
       </c>
     </row>
@@ -1955,7 +2027,7 @@
       <c r="B88">
         <v>1265</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="4">
         <v>43915</v>
       </c>
     </row>
@@ -1966,7 +2038,7 @@
       <c r="B89">
         <v>1280</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="4">
         <v>43916</v>
       </c>
     </row>
@@ -1977,7 +2049,7 @@
       <c r="B90">
         <v>1295</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="4">
         <v>43917</v>
       </c>
     </row>
@@ -1988,7 +2060,7 @@
       <c r="B91">
         <v>1310</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>43918</v>
       </c>
     </row>
@@ -1999,7 +2071,7 @@
       <c r="B92">
         <v>1325</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="4">
         <v>43919</v>
       </c>
     </row>
@@ -2010,7 +2082,7 @@
       <c r="B93">
         <v>1340</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>43920</v>
       </c>
     </row>
@@ -2021,7 +2093,7 @@
       <c r="B94">
         <v>1355</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="4">
         <v>43921</v>
       </c>
     </row>
@@ -2032,7 +2104,7 @@
       <c r="B95">
         <v>1370</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="4">
         <v>43922</v>
       </c>
     </row>
@@ -2043,7 +2115,7 @@
       <c r="B96">
         <v>1385</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="4">
         <v>43923</v>
       </c>
     </row>
@@ -2054,7 +2126,7 @@
       <c r="B97">
         <v>1400</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="4">
         <v>43924</v>
       </c>
     </row>
@@ -2065,7 +2137,7 @@
       <c r="B98">
         <v>1415</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <v>43925</v>
       </c>
     </row>
@@ -2076,7 +2148,7 @@
       <c r="B99">
         <v>1430</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>43926</v>
       </c>
     </row>
@@ -2087,7 +2159,7 @@
       <c r="B100">
         <v>1445</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>43927</v>
       </c>
     </row>
@@ -2098,7 +2170,7 @@
       <c r="B101">
         <v>1460</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>43928</v>
       </c>
     </row>
@@ -2109,7 +2181,7 @@
       <c r="B102">
         <v>1475</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>43929</v>
       </c>
     </row>
@@ -2124,20 +2196,21 @@
   <sheetPr/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="9.84615384615385"/>
+    <col min="1" max="1" width="16.1730769230769" customWidth="1"/>
+    <col min="2" max="3" width="19.0673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -2148,7 +2221,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>43831</v>
       </c>
       <c r="C2">
@@ -2156,304 +2229,387 @@
       </c>
     </row>
     <row r="3" spans="2:2">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId3" display="IT实验室"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.7692307692308"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
